--- a/download/full_list_time_methods.xlsx
+++ b/download/full_list_time_methods.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/conference/EMSE-SCAM-2017/response_major_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/repository/website/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91992D79-A61C-DE4A-892F-26DCB92691CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEA7DA-86A8-E646-970D-D3631E5626FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43940" yWindow="-3600" windowWidth="27640" windowHeight="16940" xr2:uid="{0C2A2370-F175-A342-BA67-054348F280B8}"/>
+    <workbookView xWindow="49680" yWindow="-3820" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{0C2A2370-F175-A342-BA67-054348F280B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Return Time" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="143">
   <si>
     <t>Class</t>
   </si>
@@ -445,6 +445,18 @@
   </si>
   <si>
     <t>java.net.MulticastSocket</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.locks.Condition</t>
+  </si>
+  <si>
+    <t>awaitUninterruptibly</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.locks.AbstractQueuedLongSynchronizer.ConditionObject</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.locks.AbstractQueuedSynchronizer.ConditionObject</t>
   </si>
 </sst>
 </file>
@@ -502,6 +514,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BAD46D5-6389-B549-8FD3-773FD0E7F48F}" name="Table4" displayName="Table4" ref="A1:C118" totalsRowShown="0">
   <autoFilter ref="A1:C118" xr:uid="{DCE74AA9-47E7-C84B-A283-8A3005CBC1F7}"/>
+  <sortState ref="A2:C118">
+    <sortCondition ref="A1:A118"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C8D85A6E-3385-AF48-9802-8D6E7BA1FBD9}" name="Class"/>
     <tableColumn id="2" xr3:uid="{772DAA83-5590-C94C-8FB5-80F74CE2F757}" name="Name"/>
@@ -512,8 +527,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1CC7090E-159E-6640-9E68-369ABE504487}" name="Table3" displayName="Table3" ref="A1:C33" totalsRowShown="0">
-  <autoFilter ref="A1:C33" xr:uid="{4A8453F5-7FCE-3D49-8935-0587A63242D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1CC7090E-159E-6640-9E68-369ABE504487}" name="Table3" displayName="Table3" ref="A1:C39" totalsRowShown="0">
+  <autoFilter ref="A1:C39" xr:uid="{4A8453F5-7FCE-3D49-8935-0587A63242D8}"/>
+  <sortState ref="A2:C39">
+    <sortCondition ref="A1:A39"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4DC86344-9897-E344-AFDE-AB320E78C4BB}" name="Class"/>
     <tableColumn id="2" xr3:uid="{3DEB5108-0468-DF45-A24C-27820CEF20F3}" name="Name"/>
@@ -524,8 +542,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32E76074-4ED5-6B47-AE99-3F704B64F768}" name="Table1" displayName="Table1" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14" xr:uid="{92A27F1D-005F-7C40-A192-8C8C3B6C1516}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32E76074-4ED5-6B47-AE99-3F704B64F768}" name="Table1" displayName="Table1" ref="A1:C20" totalsRowShown="0">
+  <autoFilter ref="A1:C20" xr:uid="{92A27F1D-005F-7C40-A192-8C8C3B6C1516}"/>
+  <sortState ref="A2:C20">
+    <sortCondition ref="A1:A20"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F91D2337-C9CD-0744-94B2-15AEFAEAB101}" name="Class"/>
     <tableColumn id="2" xr3:uid="{D26EB98D-3032-5E4C-BCF2-D6C04C046116}" name="Name"/>
@@ -538,6 +559,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECCB7056-FC23-FD48-AD59-263014941902}" name="Table2" displayName="Table2" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{FF7F58E5-D8FA-E142-B18E-C2B0426836C2}"/>
+  <sortState ref="A2:C11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3AD451C2-6579-B343-96D1-21558100CAAB}" name="Class"/>
     <tableColumn id="2" xr3:uid="{61907586-48DC-FF48-B3E3-3C3B742A9140}" name="Method"/>
@@ -846,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94674E08-26B9-8643-81C6-D0CE6E1C0FE6}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -894,61 +918,58 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -956,7 +977,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -964,69 +988,60 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1037,45 +1052,48 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,7 +1101,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1091,7 +1112,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1099,15 +1120,15 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -1115,45 +1136,42 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1161,7 +1179,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1169,7 +1190,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,7 +1198,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,7 +1206,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,64 +1214,61 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1258,7 +1276,10 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1266,7 +1287,7 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,88 +1295,85 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -1366,10 +1384,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1377,7 +1395,10 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1385,7 +1406,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1393,7 +1414,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1401,7 +1422,7 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1409,7 +1430,10 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1417,64 +1441,58 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1482,72 +1500,72 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
@@ -1555,48 +1573,42 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -1604,34 +1616,40 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,18 +1657,18 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -1658,45 +1676,45 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1704,7 +1722,10 @@
         <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1712,7 +1733,7 @@
         <v>57</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1720,7 +1741,7 @@
         <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1728,7 +1749,7 @@
         <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1736,97 +1757,91 @@
         <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1834,10 +1849,10 @@
         <v>63</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,7 +1860,7 @@
         <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -1856,7 +1871,7 @@
         <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -1867,7 +1882,7 @@
         <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -1875,53 +1890,62 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B113" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B118" t="s">
         <v>73</v>
@@ -1937,15 +1961,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410832CA-BED5-9E43-9FEC-63844C2AAA99}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C33"/>
+      <selection activeCell="A38" sqref="A38:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1963,35 +1987,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2002,7 +2026,7 @@
         <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2010,10 +2034,10 @@
         <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2024,70 +2048,70 @@
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -2095,65 +2119,65 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -2161,21 +2185,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -2183,13 +2207,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,68 +2295,139 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" location="awaitNanos-long-" display="https://docs.oracle.com/javase/8/docs/api/java/util/concurrent/locks/Condition.html - awaitNanos-long-" xr:uid="{02C0487F-6AA0-FC41-BA95-38D1D9ADD7BA}"/>
+    <hyperlink ref="B18" r:id="rId2" location="awaitNanos-long-" display="https://docs.oracle.com/javase/8/docs/api/java/util/concurrent/locks/Condition.html - awaitNanos-long-" xr:uid="{3A8F7CC0-5BA9-FC40-8D7A-4B86564DD474}"/>
+    <hyperlink ref="B20" r:id="rId3" location="awaitNanos-long-" display="https://docs.oracle.com/javase/8/docs/api/java/util/concurrent/locks/Condition.html - awaitNanos-long-" xr:uid="{7156DF0E-D158-A346-BE94-0A8BE78DCB4F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC0587B-1C0E-6F4B-947F-98FF10E889C1}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2357,31 +2452,34 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -2392,69 +2490,114 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E299E958-2265-3C46-A5FC-F01014D463D6}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -2493,10 +2636,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2506,6 +2649,9 @@
       <c r="B3" t="s">
         <v>127</v>
       </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2515,18 +2661,18 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2539,10 +2685,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2555,32 +2704,26 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
